--- a/data/database/Power_Network.xlsx
+++ b/data/database/Power_Network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23A81C5-8DF8-4EBE-B16B-20687ACFCF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA252BA-B4C4-4F94-BFAD-E36B63E41621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarioA" sheetId="110" r:id="rId1"/>
@@ -370,9 +370,6 @@
     <t>Format:</t>
   </si>
   <si>
-    <t>v0.0.1</t>
-  </si>
-  <si>
     <t>Database ID</t>
   </si>
   <si>
@@ -566,6 +563,9 @@
   </si>
   <si>
     <t>No = line exists, Yes = line can be invested in</t>
+  </si>
+  <si>
+    <t>v0.0.2</t>
   </si>
 </sst>
 </file>
@@ -842,13 +842,13 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="9" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Data" xfId="1" xr:uid="{226E918E-BB32-45FB-8600-16B83FFE7285}"/>
@@ -1180,7 +1180,12 @@
   </sheetPr>
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1223,26 +1228,26 @@
         <v>37</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>30</v>
@@ -1254,223 +1259,223 @@
         <v>3</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="14" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="R5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R5" s="15" t="s">
+      <c r="S5" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="N6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="O6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="P6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="Q6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="R6" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>1</v>
@@ -1491,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>5</v>
@@ -1509,10 +1514,10 @@
         <v>16</v>
       </c>
       <c r="R7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1546,12 +1551,12 @@
         <v>175</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="28">
+        <v>94</v>
+      </c>
+      <c r="M8" s="27">
         <v>10</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="27">
         <v>60</v>
       </c>
       <c r="O8" s="21" t="s">
@@ -1563,11 +1568,11 @@
       <c r="Q8" s="21">
         <v>2029</v>
       </c>
-      <c r="R8" s="23" t="s">
+      <c r="R8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S8" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -1604,12 +1609,12 @@
         <v>175</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="28">
+        <v>94</v>
+      </c>
+      <c r="M9" s="27">
         <v>11</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="27">
         <v>59</v>
       </c>
       <c r="O9" s="21" t="s">
@@ -1621,11 +1626,11 @@
       <c r="Q9" s="21">
         <v>2029</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S9" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -1662,12 +1667,12 @@
         <v>175</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" s="28">
+        <v>94</v>
+      </c>
+      <c r="M10" s="27">
         <v>12</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="27">
         <v>58</v>
       </c>
       <c r="O10" s="21" t="s">
@@ -1679,11 +1684,11 @@
       <c r="Q10" s="21">
         <v>2029</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S10" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -1720,12 +1725,12 @@
         <v>175</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="28">
+        <v>94</v>
+      </c>
+      <c r="M11" s="27">
         <v>13</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="27">
         <v>57</v>
       </c>
       <c r="O11" s="21" t="s">
@@ -1737,11 +1742,11 @@
       <c r="Q11" s="21">
         <v>2029</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S11" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -1778,12 +1783,12 @@
         <v>175</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" s="28">
+        <v>94</v>
+      </c>
+      <c r="M12" s="27">
         <v>14</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="27">
         <v>56</v>
       </c>
       <c r="O12" s="21" t="s">
@@ -1795,11 +1800,11 @@
       <c r="Q12" s="21">
         <v>2050</v>
       </c>
-      <c r="R12" s="23" t="s">
+      <c r="R12" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S12" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S12" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -1836,12 +1841,12 @@
         <v>175</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="28">
+        <v>95</v>
+      </c>
+      <c r="M13" s="27">
         <v>15</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="27">
         <v>55</v>
       </c>
       <c r="O13" s="21" t="s">
@@ -1853,11 +1858,11 @@
       <c r="Q13" s="21">
         <v>2050</v>
       </c>
-      <c r="R13" s="23" t="s">
+      <c r="R13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S13" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S13" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -1894,12 +1899,12 @@
         <v>175</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="28">
+        <v>95</v>
+      </c>
+      <c r="M14" s="27">
         <v>16</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="27">
         <v>54</v>
       </c>
       <c r="O14" s="21" t="s">
@@ -1911,11 +1916,11 @@
       <c r="Q14" s="21">
         <v>2050</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="R14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S14" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -1952,12 +1957,12 @@
         <v>175</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" s="28">
+        <v>94</v>
+      </c>
+      <c r="M15" s="27">
         <v>17</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="27">
         <v>53</v>
       </c>
       <c r="O15" s="21" t="s">
@@ -1969,11 +1974,11 @@
       <c r="Q15" s="21">
         <v>2050</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -2010,12 +2015,12 @@
         <v>175</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M16" s="28">
+        <v>94</v>
+      </c>
+      <c r="M16" s="27">
         <v>18</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="27">
         <v>52</v>
       </c>
       <c r="O16" s="21" t="s">
@@ -2027,11 +2032,11 @@
       <c r="Q16" s="21">
         <v>2050</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S16" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -2068,12 +2073,12 @@
         <v>175</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" s="28">
+        <v>94</v>
+      </c>
+      <c r="M17" s="27">
         <v>19</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="27">
         <v>51</v>
       </c>
       <c r="O17" s="21" t="s">
@@ -2085,11 +2090,11 @@
       <c r="Q17" s="21">
         <v>2050</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R17" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S17" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S17" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -2126,12 +2131,12 @@
         <v>175</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M18" s="28">
+        <v>94</v>
+      </c>
+      <c r="M18" s="27">
         <v>20</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="27">
         <v>50</v>
       </c>
       <c r="O18" s="21" t="s">
@@ -2143,11 +2148,11 @@
       <c r="Q18" s="21">
         <v>2050</v>
       </c>
-      <c r="R18" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="S18" s="27" t="s">
-        <v>100</v>
+      <c r="R18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -2184,12 +2189,12 @@
         <v>175</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" s="28">
+        <v>94</v>
+      </c>
+      <c r="M19" s="27">
         <v>21</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="27">
         <v>49</v>
       </c>
       <c r="O19" s="21" t="s">
@@ -2201,11 +2206,11 @@
       <c r="Q19" s="21">
         <v>2050</v>
       </c>
-      <c r="R19" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="S19" s="27" t="s">
-        <v>100</v>
+      <c r="R19" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -2239,12 +2244,12 @@
         <v>175</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="28">
+        <v>94</v>
+      </c>
+      <c r="M20" s="27">
         <v>22</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="27">
         <v>48</v>
       </c>
       <c r="O20" s="21" t="s">
@@ -2256,11 +2261,11 @@
       <c r="Q20" s="21">
         <v>2050</v>
       </c>
-      <c r="R20" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="S20" s="27" t="s">
-        <v>100</v>
+      <c r="R20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -2275,7 +2280,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="24">
         <v>6.0000000000000001E-3</v>
@@ -2296,12 +2301,12 @@
         <v>175</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" s="28">
+        <v>95</v>
+      </c>
+      <c r="M21" s="27">
         <v>22</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="27">
         <v>48</v>
       </c>
       <c r="O21" s="21" t="s">
@@ -2313,11 +2318,11 @@
       <c r="Q21" s="21">
         <v>2050</v>
       </c>
-      <c r="R21" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>100</v>
+      <c r="R21" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S21" s="29" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2337,7 +2342,12 @@
   </sheetPr>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2380,26 +2390,26 @@
         <v>37</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>30</v>
@@ -2411,223 +2421,223 @@
         <v>3</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="14" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="R5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R5" s="15" t="s">
+      <c r="S5" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="N6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="O6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="P6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="Q6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="R6" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>1</v>
@@ -2648,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>5</v>
@@ -2666,10 +2676,10 @@
         <v>16</v>
       </c>
       <c r="R7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2703,12 +2713,12 @@
         <v>175</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M8" s="17">
         <v>10.5</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="27">
         <v>62.5</v>
       </c>
       <c r="O8" s="21" t="s">
@@ -2720,11 +2730,11 @@
       <c r="Q8" s="21">
         <v>2029</v>
       </c>
-      <c r="R8" s="23" t="s">
+      <c r="R8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S8" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -2761,12 +2771,12 @@
         <v>175</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M9" s="17">
         <v>11.5</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="27">
         <v>59.5</v>
       </c>
       <c r="O9" s="21" t="s">
@@ -2778,11 +2788,11 @@
       <c r="Q9" s="21">
         <v>2029</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S9" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -2819,12 +2829,12 @@
         <v>175</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" s="17">
         <v>12.5</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="27">
         <v>58.5</v>
       </c>
       <c r="O10" s="21" t="s">
@@ -2836,11 +2846,11 @@
       <c r="Q10" s="21">
         <v>2029</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S10" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -2877,12 +2887,12 @@
         <v>175</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M11" s="17">
         <v>13.5</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="27">
         <v>57.5</v>
       </c>
       <c r="O11" s="21" t="s">
@@ -2894,11 +2904,11 @@
       <c r="Q11" s="21">
         <v>2029</v>
       </c>
-      <c r="R11" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>94</v>
+      <c r="R11" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -2935,12 +2945,12 @@
         <v>175</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M12" s="17">
         <v>14.5</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="27">
         <v>56.5</v>
       </c>
       <c r="O12" s="21" t="s">
@@ -2952,11 +2962,11 @@
       <c r="Q12" s="21">
         <v>2035</v>
       </c>
-      <c r="R12" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="S12" s="23" t="s">
-        <v>94</v>
+      <c r="R12" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -2993,12 +3003,12 @@
         <v>175</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M13" s="17">
         <v>15.5</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="27">
         <v>55.5</v>
       </c>
       <c r="O13" s="21" t="s">
@@ -3010,11 +3020,11 @@
       <c r="Q13" s="21">
         <v>2035</v>
       </c>
-      <c r="R13" s="23" t="s">
+      <c r="R13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S13" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S13" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -3051,12 +3061,12 @@
         <v>175</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M14" s="17">
         <v>16.5</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="27">
         <v>54.5</v>
       </c>
       <c r="O14" s="21" t="s">
@@ -3068,11 +3078,11 @@
       <c r="Q14" s="21">
         <v>2035</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="R14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S14" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -3109,12 +3119,12 @@
         <v>175</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M15" s="17">
         <v>17.5</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="27">
         <v>53.5</v>
       </c>
       <c r="O15" s="21" t="s">
@@ -3126,11 +3136,11 @@
       <c r="Q15" s="21">
         <v>2035</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -3167,12 +3177,12 @@
         <v>175</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M16" s="17">
         <v>18.5</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="27">
         <v>52.5</v>
       </c>
       <c r="O16" s="21" t="s">
@@ -3184,11 +3194,11 @@
       <c r="Q16" s="21">
         <v>2035</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S16" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -3225,12 +3235,12 @@
         <v>175</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M17" s="17">
         <v>19.5</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="27">
         <v>51.5</v>
       </c>
       <c r="O17" s="21" t="s">
@@ -3242,11 +3252,11 @@
       <c r="Q17" s="21">
         <v>2035</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R17" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S17" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="S17" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -3283,12 +3293,12 @@
         <v>175</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M18" s="17">
         <v>20.5</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="27">
         <v>50.5</v>
       </c>
       <c r="O18" s="21" t="s">
@@ -3300,11 +3310,11 @@
       <c r="Q18" s="21">
         <v>2035</v>
       </c>
-      <c r="R18" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="S18" s="27" t="s">
-        <v>100</v>
+      <c r="R18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -3341,12 +3351,12 @@
         <v>175</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M19" s="17">
         <v>21.5</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="27">
         <v>49.5</v>
       </c>
       <c r="O19" s="21" t="s">
@@ -3358,11 +3368,11 @@
       <c r="Q19" s="21">
         <v>2035</v>
       </c>
-      <c r="R19" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="S19" s="27" t="s">
-        <v>100</v>
+      <c r="R19" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -3396,12 +3406,12 @@
         <v>175</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M20" s="17">
         <v>22.5</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="27">
         <v>48.5</v>
       </c>
       <c r="O20" s="21" t="s">
@@ -3413,11 +3423,11 @@
       <c r="Q20" s="21">
         <v>2035</v>
       </c>
-      <c r="R20" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="S20" s="27" t="s">
-        <v>100</v>
+      <c r="R20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -3432,7 +3442,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="24">
         <v>6.0000000000000001E-3</v>
@@ -3453,12 +3463,12 @@
         <v>175</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M21" s="17">
         <v>23.5</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="27">
         <v>48.5</v>
       </c>
       <c r="O21" s="21" t="s">
@@ -3470,57 +3480,57 @@
       <c r="Q21" s="21">
         <v>2035</v>
       </c>
-      <c r="R21" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="S21" s="27" t="s">
-        <v>100</v>
+      <c r="R21" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S21" s="29" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N25" s="29"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N26" s="29"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N27" s="29"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N28" s="29"/>
+      <c r="N28" s="28"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N29" s="29"/>
+      <c r="N29" s="28"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N30" s="29"/>
+      <c r="N30" s="28"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N31" s="29"/>
+      <c r="N31" s="28"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N32" s="29"/>
+      <c r="N32" s="28"/>
     </row>
     <row r="33" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N33" s="29"/>
+      <c r="N33" s="28"/>
     </row>
     <row r="34" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N34" s="29"/>
+      <c r="N34" s="28"/>
     </row>
     <row r="35" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N35" s="29"/>
+      <c r="N35" s="28"/>
     </row>
     <row r="36" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N36" s="29"/>
+      <c r="N36" s="28"/>
     </row>
     <row r="37" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N37" s="29"/>
+      <c r="N37" s="28"/>
     </row>
     <row r="38" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N38" s="29"/>
+      <c r="N38" s="28"/>
     </row>
     <row r="39" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N39" s="29"/>
+      <c r="N39" s="28"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -3531,6 +3541,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -3676,15 +3695,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3692,6 +3702,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3705,14 +3723,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/database/Power_Network.xlsx
+++ b/data/database/Power_Network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA252BA-B4C4-4F94-BFAD-E36B63E41621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B692DE-2768-4232-B4F2-4F0A86DF8623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="517" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,12 +406,6 @@
     <t>ID within database</t>
   </si>
   <si>
-    <t>Year where node is commissioned (1.1.xxxx)</t>
-  </si>
-  <si>
-    <t>Which package this node belongs to</t>
-  </si>
-  <si>
     <t>Where the data for the entry comes from</t>
   </si>
   <si>
@@ -511,9 +505,6 @@
     <t>Technical representation of line in model</t>
   </si>
   <si>
-    <t>Year where node is de-commissioned (31.12.xxxx)</t>
-  </si>
-  <si>
     <t>Enable Invest</t>
   </si>
   <si>
@@ -566,6 +557,15 @@
   </si>
   <si>
     <t>v0.0.2</t>
+  </si>
+  <si>
+    <t>Which package this belongs to</t>
+  </si>
+  <si>
+    <t>Year where it is commissioned (1.1.xxxx)</t>
+  </si>
+  <si>
+    <t>Year where it is de-commissioned (31.12.xxxx)</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1182,9 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection activeCell="R6" sqref="R6:S6"/>
+      <selection pane="topRight" activeCell="R6" sqref="R6:S6"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6:S6"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -1195,9 +1196,9 @@
     <col min="6" max="11" width="12.85546875" style="3" customWidth="1"/>
     <col min="12" max="13" width="15" style="3" customWidth="1"/>
     <col min="14" max="14" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="3" customWidth="1"/>
-    <col min="16" max="18" width="15" style="3" customWidth="1"/>
-    <col min="19" max="19" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="3" customWidth="1"/>
+    <col min="16" max="17" width="21" style="3" customWidth="1"/>
+    <col min="18" max="19" width="25.85546875" style="3" customWidth="1"/>
     <col min="20" max="20" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="3" bestFit="1" customWidth="1"/>
@@ -1228,26 +1229,26 @@
         <v>37</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>30</v>
@@ -1259,22 +1260,22 @@
         <v>3</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>31</v>
@@ -1301,40 +1302,40 @@
         <v>44</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="J4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>45</v>
@@ -1355,127 +1356,127 @@
         <v>49</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="I5" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="P5" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="M6" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>1</v>
@@ -1496,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>5</v>
@@ -1514,10 +1515,10 @@
         <v>16</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1551,7 +1552,7 @@
         <v>175</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M8" s="27">
         <v>10</v>
@@ -1569,10 +1570,10 @@
         <v>2029</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -1609,7 +1610,7 @@
         <v>175</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M9" s="27">
         <v>11</v>
@@ -1627,10 +1628,10 @@
         <v>2029</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -1667,7 +1668,7 @@
         <v>175</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M10" s="27">
         <v>12</v>
@@ -1685,10 +1686,10 @@
         <v>2029</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -1725,7 +1726,7 @@
         <v>175</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M11" s="27">
         <v>13</v>
@@ -1743,10 +1744,10 @@
         <v>2029</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -1783,7 +1784,7 @@
         <v>175</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M12" s="27">
         <v>14</v>
@@ -1801,10 +1802,10 @@
         <v>2050</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -1841,7 +1842,7 @@
         <v>175</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M13" s="27">
         <v>15</v>
@@ -1859,10 +1860,10 @@
         <v>2050</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -1899,7 +1900,7 @@
         <v>175</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M14" s="27">
         <v>16</v>
@@ -1917,10 +1918,10 @@
         <v>2050</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -1957,7 +1958,7 @@
         <v>175</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M15" s="27">
         <v>17</v>
@@ -1975,10 +1976,10 @@
         <v>2050</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -2015,7 +2016,7 @@
         <v>175</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M16" s="27">
         <v>18</v>
@@ -2033,10 +2034,10 @@
         <v>2050</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -2073,7 +2074,7 @@
         <v>175</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M17" s="27">
         <v>19</v>
@@ -2091,10 +2092,10 @@
         <v>2050</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -2131,7 +2132,7 @@
         <v>175</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M18" s="27">
         <v>20</v>
@@ -2149,10 +2150,10 @@
         <v>2050</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S18" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -2189,7 +2190,7 @@
         <v>175</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M19" s="27">
         <v>21</v>
@@ -2207,10 +2208,10 @@
         <v>2050</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S19" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -2244,7 +2245,7 @@
         <v>175</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M20" s="27">
         <v>22</v>
@@ -2262,10 +2263,10 @@
         <v>2050</v>
       </c>
       <c r="R20" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S20" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -2280,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F21" s="24">
         <v>6.0000000000000001E-3</v>
@@ -2301,7 +2302,7 @@
         <v>175</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M21" s="27">
         <v>22</v>
@@ -2319,10 +2320,10 @@
         <v>2050</v>
       </c>
       <c r="R21" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S21" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2344,8 +2345,9 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -2357,9 +2359,9 @@
     <col min="6" max="11" width="12.85546875" style="3" customWidth="1"/>
     <col min="12" max="13" width="15" style="3" customWidth="1"/>
     <col min="14" max="14" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="3" customWidth="1"/>
-    <col min="16" max="18" width="15" style="3" customWidth="1"/>
-    <col min="19" max="19" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="3" customWidth="1"/>
+    <col min="16" max="17" width="21" style="3" customWidth="1"/>
+    <col min="18" max="19" width="25.85546875" style="3" customWidth="1"/>
     <col min="20" max="20" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="3" bestFit="1" customWidth="1"/>
@@ -2390,26 +2392,26 @@
         <v>37</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>30</v>
@@ -2421,22 +2423,22 @@
         <v>3</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>31</v>
@@ -2463,40 +2465,40 @@
         <v>44</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="J4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>45</v>
@@ -2517,127 +2519,127 @@
         <v>49</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="I5" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="P5" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="M6" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>1</v>
@@ -2658,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>5</v>
@@ -2676,10 +2678,10 @@
         <v>16</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2713,7 +2715,7 @@
         <v>175</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M8" s="17">
         <v>10.5</v>
@@ -2731,10 +2733,10 @@
         <v>2029</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -2771,7 +2773,7 @@
         <v>175</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M9" s="17">
         <v>11.5</v>
@@ -2789,10 +2791,10 @@
         <v>2029</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -2829,7 +2831,7 @@
         <v>175</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M10" s="17">
         <v>12.5</v>
@@ -2847,10 +2849,10 @@
         <v>2029</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -2887,7 +2889,7 @@
         <v>175</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M11" s="17">
         <v>13.5</v>
@@ -2905,10 +2907,10 @@
         <v>2029</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S11" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -2945,7 +2947,7 @@
         <v>175</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M12" s="17">
         <v>14.5</v>
@@ -2963,10 +2965,10 @@
         <v>2035</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S12" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -3003,7 +3005,7 @@
         <v>175</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M13" s="17">
         <v>15.5</v>
@@ -3021,10 +3023,10 @@
         <v>2035</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -3061,7 +3063,7 @@
         <v>175</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M14" s="17">
         <v>16.5</v>
@@ -3079,10 +3081,10 @@
         <v>2035</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -3119,7 +3121,7 @@
         <v>175</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M15" s="17">
         <v>17.5</v>
@@ -3137,10 +3139,10 @@
         <v>2035</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -3177,7 +3179,7 @@
         <v>175</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M16" s="17">
         <v>18.5</v>
@@ -3195,10 +3197,10 @@
         <v>2035</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -3235,7 +3237,7 @@
         <v>175</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M17" s="17">
         <v>19.5</v>
@@ -3253,10 +3255,10 @@
         <v>2035</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -3293,7 +3295,7 @@
         <v>175</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M18" s="17">
         <v>20.5</v>
@@ -3311,10 +3313,10 @@
         <v>2035</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S18" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -3351,7 +3353,7 @@
         <v>175</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M19" s="17">
         <v>21.5</v>
@@ -3369,10 +3371,10 @@
         <v>2035</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S19" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -3406,7 +3408,7 @@
         <v>175</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M20" s="17">
         <v>22.5</v>
@@ -3424,10 +3426,10 @@
         <v>2035</v>
       </c>
       <c r="R20" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S20" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -3442,7 +3444,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F21" s="24">
         <v>6.0000000000000001E-3</v>
@@ -3463,7 +3465,7 @@
         <v>175</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M21" s="17">
         <v>23.5</v>
@@ -3481,10 +3483,10 @@
         <v>2035</v>
       </c>
       <c r="R21" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S21" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
